--- a/biology/Mycologie/Leccinum_piceinum/Leccinum_piceinum.xlsx
+++ b/biology/Mycologie/Leccinum_piceinum/Leccinum_piceinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude des épicéas, Bolet de l'épicéa, Bolet des épinettes
 Leccinum piceinum, le Bolet rude des épicéas, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Comestible, il est caractérisé par ses mèches blanchâtres puis noires et son habitat sous épiceas.
@@ -512,16 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum piceinum Pilát &amp; Dermek[1].
-Synonymes
-Leccinum piceinum a pour synonymes[1] :
-Boletus piceinus (Pilát &amp; Dermek) Hlaváček
-Krombholziella piceina (Pilát &amp; Dermek) Šutara
-Noms vulgaires et vernaculaires
-On connait ce bolet sous le nom de : Bolet rude des épicéas[2], Bolet de l'épicéa[3] ou Bolet des épinettes[4].
-On lui confère également de façon populaire le nom vernaculaire vague et inexact de « Bolet orangé », au même titre que Leccinum aurantiacum, Leccinum versipelle, Leccinum albostipitatum, et Leccinum vulpinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de « Bolet orangé » ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de « Pible », « Pible orange » ou « Pible rouge ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum piceinum Pilát &amp; Dermek.
 </t>
         </is>
       </c>
@@ -547,18 +554,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinum piceinum a pour synonymes :
+Boletus piceinus (Pilát &amp; Dermek) Hlaváček
+Krombholziella piceina (Pilát &amp; Dermek) Šutara</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leccinum_piceinum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_piceinum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On connait ce bolet sous le nom de : Bolet rude des épicéas, Bolet de l'épicéa ou Bolet des épinettes.
+On lui confère également de façon populaire le nom vernaculaire vague et inexact de « Bolet orangé », au même titre que Leccinum aurantiacum, Leccinum versipelle, Leccinum albostipitatum, et Leccinum vulpinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de « Bolet orangé » ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de « Pible », « Pible orange » ou « Pible rouge ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_piceinum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_piceinum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum piceinum, le Bolet rude des épicéas, sont les suivantes :
-Son chapeau mesure 5 à 15 cm de diamètre. Il est de forme hémisphérique puis convexe et étalé, de texture sèche, finement fibrilleuse, puis méchuleuse à maturité. Il est de couleur orange brunâtre, rouge brique à brun rougeâtre, brunissant avec l'âge, à marge dépassant la couche de tubes[4],[2].
-L'hyménophore présente des tubes blanchâtres à gris, brunissants à maturité et au froissement. Les pores sont ronds et petits. La sporée est brune[4].
-Son stipe mesure 7 à 15 cm x 1,5 à 3 cm, de forme égal ou atténué vers l'apex. Il est plein, orné de rugosités blanches au début puis noires avec l'âge sur fond blanchâtre[4].
-La chair est épaisse, ferme, blanche, devenant rosé-violacé, violet-gris puis noirâtre à la coupe[4]. Elle est parfois bleu-vert à la base du pied[2].
-Caractéristiques microscopiques
-Les spores sont (sub)fusiformes, lisses, brun pâle dans H2O, jaunâtres dans le KOH, mesurant (10)12-16(18) x 3,5-4,5(5) µm[4].
+Son chapeau mesure 5 à 15 cm de diamètre. Il est de forme hémisphérique puis convexe et étalé, de texture sèche, finement fibrilleuse, puis méchuleuse à maturité. Il est de couleur orange brunâtre, rouge brique à brun rougeâtre, brunissant avec l'âge, à marge dépassant la couche de tubes,.
+L'hyménophore présente des tubes blanchâtres à gris, brunissants à maturité et au froissement. Les pores sont ronds et petits. La sporée est brune.
+Son stipe mesure 7 à 15 cm x 1,5 à 3 cm, de forme égal ou atténué vers l'apex. Il est plein, orné de rugosités blanches au début puis noires avec l'âge sur fond blanchâtre.
+La chair est épaisse, ferme, blanche, devenant rosé-violacé, violet-gris puis noirâtre à la coupe. Elle est parfois bleu-vert à la base du pied.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leccinum_piceinum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_piceinum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spores sont (sub)fusiformes, lisses, brun pâle dans H2O, jaunâtres dans le KOH, mesurant (10)12-16(18) x 3,5-4,5(5) µm.
 </t>
         </is>
       </c>
